--- a/data/Number_Studies_byYear.xlsx
+++ b/data/Number_Studies_byYear.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -65,7 +65,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -73,12 +73,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -120,7 +123,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -155,7 +158,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,10 +381,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,514 +408,513 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2020</v>
-      </c>
-      <c r="B3" s="1">
-        <v>960</v>
+        <v>2021</v>
+      </c>
+      <c r="B3">
+        <v>3027</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B4" s="1">
-        <v>2631</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B5" s="1">
-        <v>2280</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B6" s="1">
-        <v>1978</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B7" s="1">
-        <v>1984</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B8" s="1">
-        <v>1708</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B9" s="1">
-        <v>1649</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B10" s="1">
-        <v>1484</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B11" s="1">
-        <v>1334</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B12" s="1">
-        <v>1126</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B13" s="1">
-        <v>1114</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B14" s="1">
-        <v>1082</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B15" s="1">
-        <v>1040</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B16" s="1">
-        <v>1000</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B17" s="1">
-        <v>905</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B18" s="1">
-        <v>779</v>
+        <v>905</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B19" s="1">
-        <v>615</v>
+        <v>779</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B20" s="1">
-        <v>721</v>
+        <v>615</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B21" s="1">
-        <v>518</v>
+        <v>721</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B22" s="1">
-        <v>495</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B23" s="1">
-        <v>449</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B24" s="1">
-        <v>484</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B25" s="1">
-        <v>459</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B26" s="1">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B27" s="1">
-        <v>358</v>
-      </c>
-      <c r="C27" s="1"/>
+        <v>465</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B28" s="1">
-        <v>307</v>
+        <v>358</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B29" s="1">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B30" s="1">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B31" s="1">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B32" s="1">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B33" s="1">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B34" s="1">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B35" s="1">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B36" s="1">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B37" s="1">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B38" s="1">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B39" s="1">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B40" s="1">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B41" s="1">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B42" s="1">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B43" s="1">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B44" s="1">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B45" s="1">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B46" s="1">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B47" s="1">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B48" s="1">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B49" s="1">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B50" s="1">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B51" s="1">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B52" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="B53" s="1">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B54" s="1">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="B55" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C55" s="1"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B56" s="1">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B57" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="B58" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="B59" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="B60" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="B61" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="B62" s="1">
         <v>4</v>
@@ -921,18 +923,27 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
+        <v>1961</v>
+      </c>
+      <c r="B63" s="1">
+        <v>4</v>
+      </c>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>1960</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B64" s="1">
         <v>3</v>
       </c>
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
